--- a/sample.xlsx
+++ b/sample.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Client A" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Client B" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Client ABCD" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Client EFGH" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Description</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Note : Put details of one client on one tab. Multiple tabs for multiple clients</t>
+  </si>
+  <si>
+    <t>EFGH</t>
   </si>
   <si>
     <t>Service C</t>
@@ -99,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -117,6 +120,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,9 +495,9 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -512,12 +518,9 @@
     </row>
     <row r="6">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="4"/>
@@ -28366,7 +28369,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:L6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -28438,7 +28441,7 @@
         <v>10.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -28501,7 +28504,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>2.0</v>
@@ -28540,9 +28543,9 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -28563,12 +28566,9 @@
     </row>
     <row r="6">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="4"/>
@@ -56417,7 +56417,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:L6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
